--- a/data/datacall_template/00template/Eel_Data_Call_Annex9_Other_Sampling_Data.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_Annex9_Other_Sampling_Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\wg_WGEEL\data\datacall_template\00template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79BD281F-6DF0-40E6-BF14-AFE8537049C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18390" windowHeight="12210"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -2582,11 +2588,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3044,7 +3050,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3299,7 +3305,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235F1AFE-8223-4035-AAAF-B2C22A1DCBFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235F1AFE-8223-4035-AAAF-B2C22A1DCBFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,7 +3352,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93617983-368F-4B92-9841-7591F16BB9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93617983-368F-4B92-9841-7591F16BB9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3393,7 +3399,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3451,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,7 +3503,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3549,7 +3555,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3601,7 +3607,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3653,7 +3659,7 @@
         <xdr:cNvPr id="18" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3705,7 +3711,7 @@
         <xdr:cNvPr id="19" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3757,7 +3763,7 @@
         <xdr:cNvPr id="20" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3809,7 +3815,7 @@
         <xdr:cNvPr id="21" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3866,7 +3872,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5FA771-E480-477C-9946-3AEEFD9673F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5FA771-E480-477C-9946-3AEEFD9673F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3914,7 +3920,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4005,7 +4011,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4156,7 +4162,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4247,7 +4253,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4338,7 +4344,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4429,7 +4435,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4515,7 +4521,7 @@
         <xdr:cNvPr id="8193" name="Text Box 1025" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA258A2-8829-DE88-DDDC-E174D9D4945F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA258A2-8829-DE88-DDDC-E174D9D4945F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4579,7 +4585,7 @@
         <xdr:cNvPr id="1027" name="Text Box 3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B2EC00-6802-A5EC-AFA7-1A36961F4891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B2EC00-6802-A5EC-AFA7-1A36961F4891}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4648,7 +4654,7 @@
         <xdr:cNvPr id="8" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4739,7 +4745,7 @@
         <xdr:cNvPr id="9" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4827,9 +4833,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4867,7 +4873,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4939,7 +4945,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5112,7 +5118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -5120,16 +5126,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="97.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.265625" customWidth="1"/>
+    <col min="2" max="2" width="97.3984375" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="256" width="20.28515625" customWidth="1"/>
+    <col min="4" max="256" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="206.25" customHeight="1"/>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" ht="206.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -5137,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26.45" customHeight="1">
+    <row r="3" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5145,7 +5151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25" customHeight="1">
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -5161,7 +5167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1">
+    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -5169,7 +5175,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -5185,7 +5191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -5201,7 +5207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -5217,7 +5223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
@@ -5225,7 +5231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -5233,11 +5239,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="33" customHeight="1">
+    <row r="15" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="26.45" customHeight="1">
+    <row r="17" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -5261,7 +5267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="26.45" customHeight="1">
+    <row r="19" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -5277,7 +5283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="13.5" customHeight="1">
+    <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -5293,7 +5299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="13.5" customHeight="1">
+    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -5301,7 +5307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="13.5" customHeight="1">
+    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -5309,7 +5315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -5317,7 +5323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -5325,7 +5331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
@@ -5341,7 +5347,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="26.45" customHeight="1">
+    <row r="29" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>114</v>
       </c>
@@ -5349,7 +5355,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -5357,7 +5363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -5373,7 +5379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
@@ -5381,7 +5387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>53</v>
       </c>
@@ -5389,7 +5395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>55</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>57</v>
       </c>
@@ -5405,7 +5411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>59</v>
       </c>
@@ -5413,7 +5419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>61</v>
       </c>
@@ -5421,7 +5427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="26.45" customHeight="1">
+    <row r="39" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>113</v>
       </c>
@@ -5429,7 +5435,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="13.5" customHeight="1">
+    <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
@@ -5437,7 +5443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="13.5" customHeight="1">
+    <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>65</v>
       </c>
@@ -5445,7 +5451,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="13.5" customHeight="1">
+    <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>67</v>
       </c>
@@ -5453,7 +5459,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -5461,10 +5467,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>69</v>
       </c>
@@ -5472,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="26.45" customHeight="1">
+    <row r="47" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>70</v>
       </c>
@@ -5480,7 +5486,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>792</v>
       </c>
@@ -5488,7 +5494,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -5496,7 +5502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>72</v>
       </c>
@@ -5504,7 +5510,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>106</v>
       </c>
@@ -5512,7 +5518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>73</v>
       </c>
@@ -5520,7 +5526,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>793</v>
       </c>
@@ -5528,7 +5534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>76</v>
       </c>
@@ -5536,7 +5542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>77</v>
       </c>
@@ -5544,7 +5550,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>79</v>
       </c>
@@ -5552,7 +5558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>38</v>
       </c>
@@ -5560,7 +5566,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>40</v>
       </c>
@@ -5568,7 +5574,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>42</v>
       </c>
@@ -5576,7 +5582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>430</v>
       </c>
@@ -5584,7 +5590,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="26.45" customHeight="1">
+    <row r="61" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>114</v>
       </c>
@@ -5592,7 +5598,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="26.45" customHeight="1">
+    <row r="62" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>85</v>
       </c>
@@ -5600,7 +5606,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>97</v>
       </c>
@@ -5608,7 +5614,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>88</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="26.45" customHeight="1">
+    <row r="65" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>438</v>
       </c>
@@ -5624,7 +5630,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>61</v>
       </c>
@@ -5632,7 +5638,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="26.45" customHeight="1">
+    <row r="67" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>113</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="26.45" customHeight="1">
+    <row r="68" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>92</v>
       </c>
@@ -5648,7 +5654,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="26.45" customHeight="1">
+    <row r="69" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>94</v>
       </c>
@@ -5664,7 +5670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5674,13 +5680,13 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="16" max="16" width="19.85546875" customWidth="1"/>
-    <col min="1020" max="1020" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="19.86328125" customWidth="1"/>
+    <col min="1020" max="1020" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="79.150000000000006" customHeight="1">
+    <row r="1" spans="1:24" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>70</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="P2" s="14"/>
       <c r="V2" s="1"/>
     </row>
@@ -5766,20 +5772,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="2" max="3" width="11.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
+    <col min="5" max="1025" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
         <v>123</v>
       </c>
@@ -5793,7 +5799,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
         <v>127</v>
       </c>
@@ -5805,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>129</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>131</v>
       </c>
@@ -5831,7 +5837,7 @@
       <c r="E4" s="30"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
         <v>133</v>
       </c>
@@ -5845,7 +5851,7 @@
       <c r="E5" s="30"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
         <v>135</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
         <v>136</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
         <v>137</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="27" t="s">
         <v>138</v>
       </c>
@@ -5893,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="27" t="s">
         <v>139</v>
       </c>
@@ -5905,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
         <v>141</v>
       </c>
@@ -5917,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="27" t="s">
         <v>143</v>
       </c>
@@ -5929,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
         <v>144</v>
       </c>
@@ -5941,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="27" t="s">
         <v>145</v>
       </c>
@@ -5953,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="27" t="s">
         <v>147</v>
       </c>
@@ -5965,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="27" t="s">
         <v>148</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
         <v>149</v>
       </c>
@@ -5989,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="27" t="s">
         <v>150</v>
       </c>
@@ -6001,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="27" t="s">
         <v>151</v>
       </c>
@@ -6013,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="27" t="s">
         <v>152</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="27" t="s">
         <v>153</v>
       </c>
@@ -6037,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="27" t="s">
         <v>154</v>
       </c>
@@ -6049,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="27" t="s">
         <v>155</v>
       </c>
@@ -6061,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="27" t="s">
         <v>156</v>
       </c>
@@ -6073,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
         <v>158</v>
       </c>
@@ -6087,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="27" t="s">
         <v>160</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="27" t="s">
         <v>161</v>
       </c>
@@ -6111,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="27" t="s">
         <v>163</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="27" t="s">
         <v>165</v>
       </c>
@@ -6135,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
         <v>166</v>
       </c>
@@ -6147,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>167</v>
       </c>
@@ -6159,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
         <v>169</v>
       </c>
@@ -6171,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="27" t="s">
         <v>171</v>
       </c>
@@ -6183,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="27" t="s">
         <v>172</v>
       </c>
@@ -6195,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>173</v>
       </c>
@@ -6207,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="27" t="s">
         <v>174</v>
       </c>
@@ -6219,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="27" t="s">
         <v>175</v>
       </c>
@@ -6231,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="27" t="s">
         <v>176</v>
       </c>
@@ -6243,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="27" t="s">
         <v>177</v>
       </c>
@@ -6255,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="27" t="s">
         <v>178</v>
       </c>
@@ -6267,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="27" t="s">
         <v>179</v>
       </c>
@@ -6281,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="27" t="s">
         <v>182</v>
       </c>
@@ -6293,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="27" t="s">
         <v>183</v>
       </c>
@@ -6305,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="27" t="s">
         <v>184</v>
       </c>
@@ -6317,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="27" t="s">
         <v>185</v>
       </c>
@@ -6329,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="27" t="s">
         <v>186</v>
       </c>
@@ -6341,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="27" t="s">
         <v>187</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="27" t="s">
         <v>189</v>
       </c>
@@ -6365,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="27" t="s">
         <v>190</v>
       </c>
@@ -6377,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="27" t="s">
         <v>192</v>
       </c>
@@ -6389,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="27" t="s">
         <v>193</v>
       </c>
@@ -6401,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="27" t="s">
         <v>194</v>
       </c>
@@ -6413,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="27" t="s">
         <v>195</v>
       </c>
@@ -6425,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="27" t="s">
         <v>196</v>
       </c>
@@ -6437,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="27" t="s">
         <v>197</v>
       </c>
@@ -6449,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="27" t="s">
         <v>198</v>
       </c>
@@ -6461,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="27" t="s">
         <v>199</v>
       </c>
@@ -6473,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="27" t="s">
         <v>200</v>
       </c>
@@ -6485,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="27" t="s">
         <v>201</v>
       </c>
@@ -6497,7 +6503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="27" t="s">
         <v>202</v>
       </c>
@@ -6509,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="27" t="s">
         <v>204</v>
       </c>
@@ -6521,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="27" t="s">
         <v>205</v>
       </c>
@@ -6533,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="27" t="s">
         <v>206</v>
       </c>
@@ -6545,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="27" t="s">
         <v>207</v>
       </c>
@@ -6557,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="27" t="s">
         <v>208</v>
       </c>
@@ -6569,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="27" t="s">
         <v>209</v>
       </c>
@@ -6581,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="27" t="s">
         <v>210</v>
       </c>
@@ -6593,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="27" t="s">
         <v>211</v>
       </c>
@@ -6605,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="27" t="s">
         <v>212</v>
       </c>
@@ -6617,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="27" t="s">
         <v>213</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="27" t="s">
         <v>214</v>
       </c>
@@ -6641,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="27" t="s">
         <v>215</v>
       </c>
@@ -6653,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="27" t="s">
         <v>216</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="27" t="s">
         <v>217</v>
       </c>
@@ -6677,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="27" t="s">
         <v>218</v>
       </c>
@@ -6689,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="27" t="s">
         <v>220</v>
       </c>
@@ -6701,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="27" t="s">
         <v>221</v>
       </c>
@@ -6713,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="27" t="s">
         <v>222</v>
       </c>
@@ -6725,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="27" t="s">
         <v>223</v>
       </c>
@@ -6737,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="27" t="s">
         <v>224</v>
       </c>
@@ -6749,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="27" t="s">
         <v>226</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="27" t="s">
         <v>228</v>
       </c>
@@ -6773,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="27" t="s">
         <v>229</v>
       </c>
@@ -6785,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="27" t="s">
         <v>230</v>
       </c>
@@ -6797,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="27" t="s">
         <v>231</v>
       </c>
@@ -6809,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="27" t="s">
         <v>232</v>
       </c>
@@ -6821,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="27" t="s">
         <v>233</v>
       </c>
@@ -6833,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="27" t="s">
         <v>234</v>
       </c>
@@ -6845,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="27" t="s">
         <v>236</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="27" t="s">
         <v>239</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="27" t="s">
         <v>241</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="27" t="s">
         <v>242</v>
       </c>
@@ -6895,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="27" t="s">
         <v>243</v>
       </c>
@@ -6907,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="27" t="s">
         <v>244</v>
       </c>
@@ -6919,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="27" t="s">
         <v>245</v>
       </c>
@@ -6931,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="27" t="s">
         <v>246</v>
       </c>
@@ -6943,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="27" t="s">
         <v>247</v>
       </c>
@@ -6955,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="27" t="s">
         <v>248</v>
       </c>
@@ -6967,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="27" t="s">
         <v>249</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="27" t="s">
         <v>250</v>
       </c>
@@ -6991,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="27" t="s">
         <v>251</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="27" t="s">
         <v>252</v>
       </c>
@@ -7015,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="27" t="s">
         <v>253</v>
       </c>
@@ -7027,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="27" t="s">
         <v>254</v>
       </c>
@@ -7040,7 +7046,7 @@
       </c>
       <c r="E104" s="14"/>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="27" t="s">
         <v>255</v>
       </c>
@@ -7052,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="27" t="s">
         <v>256</v>
       </c>
@@ -7064,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="27" t="s">
         <v>257</v>
       </c>
@@ -7076,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="27" t="s">
         <v>258</v>
       </c>
@@ -7088,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="27" t="s">
         <v>259</v>
       </c>
@@ -7100,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="27" t="s">
         <v>260</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="27" t="s">
         <v>261</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="27" t="s">
         <v>263</v>
       </c>
@@ -7136,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="27" t="s">
         <v>265</v>
       </c>
@@ -7148,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="27" t="s">
         <v>266</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="27" t="s">
         <v>268</v>
       </c>
@@ -7172,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="27" t="s">
         <v>269</v>
       </c>
@@ -7184,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="27" t="s">
         <v>271</v>
       </c>
@@ -7196,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="27" t="s">
         <v>272</v>
       </c>
@@ -7208,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="27" t="s">
         <v>274</v>
       </c>
@@ -7220,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="27" t="s">
         <v>276</v>
       </c>
@@ -7232,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="27" t="s">
         <v>278</v>
       </c>
@@ -7244,7 +7250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="27" t="s">
         <v>280</v>
       </c>
@@ -7256,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="27" t="s">
         <v>282</v>
       </c>
@@ -7268,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="27" t="s">
         <v>284</v>
       </c>
@@ -7280,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="27" t="s">
         <v>286</v>
       </c>
@@ -7292,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="27" t="s">
         <v>287</v>
       </c>
@@ -7304,7 +7310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="27" t="s">
         <v>288</v>
       </c>
@@ -7316,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="27" t="s">
         <v>289</v>
       </c>
@@ -7328,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="27" t="s">
         <v>290</v>
       </c>
@@ -7340,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="27" t="s">
         <v>292</v>
       </c>
@@ -7352,7 +7358,7 @@
       </c>
       <c r="D130" s="26"/>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="27" t="s">
         <v>295</v>
       </c>
@@ -7364,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="27" t="s">
         <v>296</v>
       </c>
@@ -7376,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="27" t="s">
         <v>297</v>
       </c>
@@ -7388,7 +7394,7 @@
       </c>
       <c r="D133" s="26"/>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="26" t="s">
         <v>298</v>
       </c>
@@ -7399,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="27" t="s">
         <v>299</v>
       </c>
@@ -7413,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="27" t="s">
         <v>300</v>
       </c>
@@ -7425,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="27" t="s">
         <v>301</v>
       </c>
@@ -7437,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="27" t="s">
         <v>303</v>
       </c>
@@ -7449,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="27" t="s">
         <v>305</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="27" t="s">
         <v>308</v>
       </c>
@@ -7477,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="27" t="s">
         <v>310</v>
       </c>
@@ -7491,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="27" t="s">
         <v>312</v>
       </c>
@@ -7505,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="27" t="s">
         <v>314</v>
       </c>
@@ -7517,7 +7523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="27" t="s">
         <v>315</v>
       </c>
@@ -7529,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="27" t="s">
         <v>317</v>
       </c>
@@ -7541,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="27" t="s">
         <v>319</v>
       </c>
@@ -7561,17 +7567,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1025" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
         <v>320</v>
       </c>
@@ -7586,7 +7592,7 @@
       </c>
       <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
         <v>128</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -7614,7 +7620,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>132</v>
       </c>
@@ -7628,7 +7634,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
         <v>134</v>
       </c>
@@ -7642,7 +7648,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
         <v>140</v>
       </c>
@@ -7656,7 +7662,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
         <v>142</v>
       </c>
@@ -7670,7 +7676,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
         <v>146</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="27" t="s">
         <v>157</v>
       </c>
@@ -7698,7 +7704,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="27" t="s">
         <v>162</v>
       </c>
@@ -7712,7 +7718,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
         <v>164</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="27" t="s">
         <v>168</v>
       </c>
@@ -7740,7 +7746,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
         <v>170</v>
       </c>
@@ -7754,7 +7760,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="27" t="s">
         <v>188</v>
       </c>
@@ -7768,7 +7774,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="27" t="s">
         <v>191</v>
       </c>
@@ -7782,7 +7788,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="27" t="s">
         <v>203</v>
       </c>
@@ -7796,7 +7802,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="27" t="s">
         <v>219</v>
       </c>
@@ -7810,7 +7816,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="27" t="s">
         <v>225</v>
       </c>
@@ -7824,7 +7830,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="27" t="s">
         <v>227</v>
       </c>
@@ -7838,7 +7844,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="27" t="s">
         <v>235</v>
       </c>
@@ -7852,7 +7858,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="27" t="s">
         <v>238</v>
       </c>
@@ -7866,7 +7872,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="27" t="s">
         <v>240</v>
       </c>
@@ -7880,7 +7886,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="27" t="s">
         <v>262</v>
       </c>
@@ -7894,7 +7900,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="27" t="s">
         <v>264</v>
       </c>
@@ -7908,7 +7914,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
         <v>267</v>
       </c>
@@ -7922,7 +7928,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="27" t="s">
         <v>270</v>
       </c>
@@ -7936,7 +7942,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="27" t="s">
         <v>273</v>
       </c>
@@ -7950,7 +7956,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="27" t="s">
         <v>275</v>
       </c>
@@ -7964,7 +7970,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="27" t="s">
         <v>277</v>
       </c>
@@ -7978,7 +7984,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
         <v>279</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>281</v>
       </c>
@@ -8006,7 +8012,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
         <v>283</v>
       </c>
@@ -8020,7 +8026,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="27" t="s">
         <v>285</v>
       </c>
@@ -8034,7 +8040,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="27" t="s">
         <v>181</v>
       </c>
@@ -8048,7 +8054,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>291</v>
       </c>
@@ -8062,7 +8068,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="27" t="s">
         <v>294</v>
       </c>
@@ -8076,7 +8082,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="27" t="s">
         <v>302</v>
       </c>
@@ -8090,7 +8096,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="27" t="s">
         <v>304</v>
       </c>
@@ -8104,7 +8110,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="27" t="s">
         <v>307</v>
       </c>
@@ -8118,7 +8124,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="27" t="s">
         <v>316</v>
       </c>
@@ -8132,7 +8138,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>318</v>
       </c>
@@ -8154,20 +8160,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" customWidth="1"/>
+    <col min="3" max="3" width="32.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" customHeight="1">
+    <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
         <v>403</v>
       </c>
@@ -8199,7 +8205,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -8227,7 +8233,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -8283,7 +8289,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -8311,7 +8317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -8339,7 +8345,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8371,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -8401,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -8433,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" customHeight="1">
+    <row r="10" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -8459,7 +8465,7 @@
       </c>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>10</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="36">
         <v>11</v>
       </c>
@@ -8519,7 +8525,7 @@
       <c r="J12" s="36"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="1:11" ht="14.45" customHeight="1">
+    <row r="13" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>12</v>
       </c>
@@ -8546,7 +8552,7 @@
       <c r="J13" s="36"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" customHeight="1">
+    <row r="14" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -8577,7 +8583,7 @@
       </c>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" customHeight="1">
+    <row r="15" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -8608,7 +8614,7 @@
       </c>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="1:11" ht="14.45" customHeight="1">
+    <row r="16" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="36">
         <v>15</v>
       </c>
@@ -8637,7 +8643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" customHeight="1">
+    <row r="17" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="36">
         <v>16</v>
       </c>
@@ -8666,7 +8672,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" customHeight="1">
+    <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="36">
         <v>17</v>
       </c>
@@ -8695,7 +8701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -8724,7 +8730,7 @@
       </c>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -8753,7 +8759,7 @@
       </c>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -8782,7 +8788,7 @@
       </c>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -8811,7 +8817,7 @@
       </c>
       <c r="K22" s="35"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -8840,7 +8846,7 @@
       </c>
       <c r="K23" s="35"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -8869,7 +8875,7 @@
       </c>
       <c r="K24" s="35"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -8898,7 +8904,7 @@
       </c>
       <c r="K25" s="35"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -8927,7 +8933,7 @@
       </c>
       <c r="K26" s="35"/>
     </row>
-    <row r="27" spans="1:11" ht="14.45" customHeight="1">
+    <row r="27" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>26</v>
       </c>
@@ -8956,7 +8962,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -8988,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9025,18 +9031,18 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="11" width="11.42578125" customWidth="1"/>
-    <col min="15" max="1026" width="11.42578125" customWidth="1"/>
+    <col min="2" max="11" width="11.3984375" customWidth="1"/>
+    <col min="15" max="1026" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>492</v>
       </c>
@@ -9077,7 +9083,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="26">
         <v>71</v>
       </c>
@@ -9112,7 +9118,7 @@
         <v>11827243389.3563</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="26">
         <v>72</v>
       </c>
@@ -9150,7 +9156,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="26">
         <v>73</v>
       </c>
@@ -9191,7 +9197,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="26">
         <v>74</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="26">
         <v>75</v>
       </c>
@@ -9267,7 +9273,7 @@
         <v>316899098139.797</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="26">
         <v>76</v>
       </c>
@@ -9305,7 +9311,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="26">
         <v>77</v>
       </c>
@@ -9343,7 +9349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="26">
         <v>78</v>
       </c>
@@ -9378,7 +9384,7 @@
         <v>4496587748126.46</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="26">
         <v>79</v>
       </c>
@@ -9413,7 +9419,7 @@
         <v>3023573856489.0801</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="26">
         <v>80</v>
       </c>
@@ -9448,7 +9454,7 @@
         <v>1184538445204.4299</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="26">
         <v>96</v>
       </c>
@@ -9483,7 +9489,7 @@
         <v>422247977449.67603</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="26">
         <v>97</v>
       </c>
@@ -9518,7 +9524,7 @@
         <v>41321419919.626198</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="26">
         <v>98</v>
       </c>
@@ -9553,7 +9559,7 @@
         <v>62704555110.285301</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="26">
         <v>99</v>
       </c>
@@ -9588,7 +9594,7 @@
         <v>313741454768.85699</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="26">
         <v>100</v>
       </c>
@@ -9623,7 +9629,7 @@
         <v>220899128413.51099</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="26">
         <v>101</v>
       </c>
@@ -9658,7 +9664,7 @@
         <v>98667922160.618607</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="26">
         <v>102</v>
       </c>
@@ -9693,7 +9699,7 @@
         <v>846342412103.46399</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="26">
         <v>103</v>
       </c>
@@ -9728,7 +9734,7 @@
         <v>286448212866.63501</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="26">
         <v>104</v>
       </c>
@@ -9763,7 +9769,7 @@
         <v>881394555828.87805</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="26">
         <v>105</v>
       </c>
@@ -9798,7 +9804,7 @@
         <v>279189043353.84497</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="26">
         <v>106</v>
       </c>
@@ -9833,7 +9839,7 @@
         <v>642349466314.66003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="26">
         <v>107</v>
       </c>
@@ -9868,7 +9874,7 @@
         <v>434666422776.43903</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="26">
         <v>108</v>
       </c>
@@ -9903,7 +9909,7 @@
         <v>2153313079917.8899</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="26">
         <v>109</v>
       </c>
@@ -9938,7 +9944,7 @@
         <v>9930060670167.3105</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="26">
         <v>110</v>
       </c>
@@ -9973,7 +9979,7 @@
         <v>385961797925.44702</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="26">
         <v>111</v>
       </c>
@@ -10008,7 +10014,7 @@
         <v>378752335437.995</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="26">
         <v>112</v>
       </c>
@@ -10043,7 +10049,7 @@
         <v>655635852456.71399</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="26">
         <v>113</v>
       </c>
@@ -10078,7 +10084,7 @@
         <v>3867382562514.3501</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="26">
         <v>114</v>
       </c>
@@ -10113,7 +10119,7 @@
         <v>1695676630652.49</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="26">
         <v>115</v>
       </c>
@@ -10148,7 +10154,7 @@
         <v>1696302714188.0901</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="26">
         <v>116</v>
       </c>
@@ -10183,7 +10189,7 @@
         <v>85283982520.759796</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="26">
         <v>117</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>81149107680.717102</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="26">
         <v>118</v>
       </c>
@@ -10253,7 +10259,7 @@
         <v>344471053621.151</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="26">
         <v>119</v>
       </c>
@@ -10288,7 +10294,7 @@
         <v>135175004544.72701</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="26">
         <v>120</v>
       </c>
@@ -10323,7 +10329,7 @@
         <v>7043515912715.1699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="26">
         <v>121</v>
       </c>
@@ -10358,7 +10364,7 @@
         <v>5197206508048.25</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="26">
         <v>122</v>
       </c>
@@ -10393,7 +10399,7 @@
         <v>2439357816518.6099</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="26">
         <v>123</v>
       </c>
@@ -10428,7 +10434,7 @@
         <v>1600757464658.6899</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="26">
         <v>124</v>
       </c>
@@ -10463,7 +10469,7 @@
         <v>467636809277.08099</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="26">
         <v>125</v>
       </c>
@@ -10498,7 +10504,7 @@
         <v>654991036258.36694</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="26">
         <v>126</v>
       </c>
@@ -10533,7 +10539,7 @@
         <v>2496053978349.4302</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="26">
         <v>127</v>
       </c>
@@ -10568,7 +10574,7 @@
         <v>467312947943.87799</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="26">
         <v>128</v>
       </c>
@@ -10603,7 +10609,7 @@
         <v>1088366320151.37</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="26">
         <v>129</v>
       </c>
@@ -10638,7 +10644,7 @@
         <v>468186948532.71802</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="26">
         <v>130</v>
       </c>
@@ -10673,7 +10679,7 @@
         <v>550565654867.54797</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="26">
         <v>131</v>
       </c>
@@ -10708,7 +10714,7 @@
         <v>361270756415.04303</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="26">
         <v>132</v>
       </c>
@@ -10743,7 +10749,7 @@
         <v>448330060091.91101</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="26">
         <v>133</v>
       </c>
@@ -10778,7 +10784,7 @@
         <v>1083086415270.52</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="26">
         <v>134</v>
       </c>
@@ -10813,7 +10819,7 @@
         <v>1147419312303.3899</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="26">
         <v>135</v>
       </c>
@@ -10848,7 +10854,7 @@
         <v>569190026492.58606</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="26">
         <v>136</v>
       </c>
@@ -10883,7 +10889,7 @@
         <v>716880734337.01501</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="26">
         <v>137</v>
       </c>
@@ -10918,7 +10924,7 @@
         <v>412127342882.95001</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="26">
         <v>138</v>
       </c>
@@ -10953,7 +10959,7 @@
         <v>504900117973.34003</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1">
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="26">
         <v>139</v>
       </c>
@@ -10988,7 +10994,7 @@
         <v>10566518729291.9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="26">
         <v>140</v>
       </c>
@@ -11023,7 +11029,7 @@
         <v>1519799815516.1599</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="26">
         <v>141</v>
       </c>
@@ -11058,7 +11064,7 @@
         <v>1559667064619.3501</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="26">
         <v>142</v>
       </c>
@@ -11093,7 +11099,7 @@
         <v>4594091372824.0801</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="26">
         <v>143</v>
       </c>
@@ -11128,7 +11134,7 @@
         <v>1174975618182.74</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="26">
         <v>144</v>
       </c>
@@ -11163,7 +11169,7 @@
         <v>3815618915934.1899</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1">
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="26">
         <v>145</v>
       </c>
@@ -11198,7 +11204,7 @@
         <v>1093012946462.8</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1">
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="26">
         <v>146</v>
       </c>
@@ -11233,7 +11239,7 @@
         <v>70014038601.646103</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="26">
         <v>147</v>
       </c>
@@ -11268,7 +11274,7 @@
         <v>88359698256.121002</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1">
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="26">
         <v>148</v>
       </c>
@@ -11303,7 +11309,7 @@
         <v>171992691258.642</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" customHeight="1">
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="26">
         <v>149</v>
       </c>
@@ -11338,7 +11344,7 @@
         <v>412234431658.54602</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1">
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="26">
         <v>150</v>
       </c>
@@ -11373,7 +11379,7 @@
         <v>186307407391.84601</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1">
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="26">
         <v>151</v>
       </c>
@@ -11408,7 +11414,7 @@
         <v>409645550250.66699</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" customHeight="1">
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="26">
         <v>152</v>
       </c>
@@ -11443,7 +11449,7 @@
         <v>140872407131.34</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" customHeight="1">
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="26">
         <v>153</v>
       </c>
@@ -11478,7 +11484,7 @@
         <v>177437783206.397</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1">
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="26">
         <v>154</v>
       </c>
@@ -11513,7 +11519,7 @@
         <v>175826164398.97601</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" customHeight="1">
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="26">
         <v>155</v>
       </c>
@@ -11548,7 +11554,7 @@
         <v>217121567139.55801</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1">
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="26">
         <v>156</v>
       </c>
@@ -11583,7 +11589,7 @@
         <v>223244675125.655</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" customHeight="1">
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="26">
         <v>157</v>
       </c>
@@ -11618,7 +11624,7 @@
         <v>226608326184.94299</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15" customHeight="1">
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="26">
         <v>158</v>
       </c>
@@ -11653,7 +11659,7 @@
         <v>357712169818.44</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1">
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="26">
         <v>159</v>
       </c>
@@ -11688,7 +11694,7 @@
         <v>167971393625.767</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1">
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="26">
         <v>160</v>
       </c>
@@ -11723,7 +11729,7 @@
         <v>92763573597.969696</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15" customHeight="1">
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="26">
         <v>161</v>
       </c>
@@ -11758,7 +11764,7 @@
         <v>34964551008.014603</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1">
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="26">
         <v>162</v>
       </c>
@@ -11793,7 +11799,7 @@
         <v>1042053158223.9301</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" customHeight="1">
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="26">
         <v>163</v>
       </c>
@@ -11828,7 +11834,7 @@
         <v>303932170699.63702</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15" customHeight="1">
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="26">
         <v>164</v>
       </c>
@@ -11863,7 +11869,7 @@
         <v>228987010239.69601</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15" customHeight="1">
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="26">
         <v>165</v>
       </c>
@@ -11898,7 +11904,7 @@
         <v>3491072379995.2798</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" customHeight="1">
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="26">
         <v>166</v>
       </c>
@@ -11933,7 +11939,7 @@
         <v>3956846105365.0098</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" customHeight="1">
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="26">
         <v>167</v>
       </c>
@@ -11968,7 +11974,7 @@
         <v>197939868755.13</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15" customHeight="1">
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="26">
         <v>168</v>
       </c>
@@ -12003,7 +12009,7 @@
         <v>99469988428.181198</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15" customHeight="1">
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="26">
         <v>169</v>
       </c>
@@ -12038,7 +12044,7 @@
         <v>57004067470.880302</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15" customHeight="1">
+    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="26">
         <v>170</v>
       </c>
@@ -12073,7 +12079,7 @@
         <v>18973216547.926701</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" customHeight="1">
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="26">
         <v>171</v>
       </c>
@@ -12108,7 +12114,7 @@
         <v>47663203973.073997</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15" customHeight="1">
+    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="26">
         <v>172</v>
       </c>
@@ -12143,7 +12149,7 @@
         <v>856596953847.15503</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15" customHeight="1">
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="26">
         <v>173</v>
       </c>
@@ -12178,7 +12184,7 @@
         <v>214505346084.98099</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" customHeight="1">
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="26">
         <v>174</v>
       </c>
@@ -12213,7 +12219,7 @@
         <v>64302618029.027702</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15" customHeight="1">
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="26">
         <v>175</v>
       </c>
@@ -12248,7 +12254,7 @@
         <v>88580563653.370895</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15" customHeight="1">
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="26">
         <v>176</v>
       </c>
@@ -12283,7 +12289,7 @@
         <v>380161918817.17499</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15" customHeight="1">
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="26">
         <v>177</v>
       </c>
@@ -12318,7 +12324,7 @@
         <v>20488533249.959</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15" customHeight="1">
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="26">
         <v>178</v>
       </c>
@@ -12353,7 +12359,7 @@
         <v>281384523981.08502</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15" customHeight="1">
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="26">
         <v>179</v>
       </c>
@@ -12388,7 +12394,7 @@
         <v>221553532852.58401</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" customHeight="1">
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="26">
         <v>180</v>
       </c>
@@ -12423,7 +12429,7 @@
         <v>192204603063.90302</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15" customHeight="1">
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="26">
         <v>181</v>
       </c>
@@ -12458,7 +12464,7 @@
         <v>1070537069066.22</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" customHeight="1">
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="26">
         <v>182</v>
       </c>
@@ -12493,7 +12499,7 @@
         <v>378761117704.06201</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15" customHeight="1">
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="26">
         <v>183</v>
       </c>
@@ -12528,7 +12534,7 @@
         <v>673865498249.81995</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" customHeight="1">
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="26">
         <v>184</v>
       </c>
@@ -12563,7 +12569,7 @@
         <v>1432904033316.6101</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15" customHeight="1">
+    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="26">
         <v>185</v>
       </c>
@@ -12598,7 +12604,7 @@
         <v>1125175349493.0901</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15" customHeight="1">
+    <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="26">
         <v>186</v>
       </c>
@@ -12633,7 +12639,7 @@
         <v>66867090358.895798</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15" customHeight="1">
+    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="26">
         <v>187</v>
       </c>
@@ -12668,7 +12674,7 @@
         <v>660096564456.20605</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15" customHeight="1">
+    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="26">
         <v>188</v>
       </c>
@@ -12703,7 +12709,7 @@
         <v>56394287388.047401</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15" customHeight="1">
+    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="26">
         <v>189</v>
       </c>
@@ -12738,7 +12744,7 @@
         <v>33233430849.162498</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15" customHeight="1">
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="26">
         <v>190</v>
       </c>
@@ -12773,7 +12779,7 @@
         <v>237092006623.62201</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15" customHeight="1">
+    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="26">
         <v>198</v>
       </c>
@@ -12808,7 +12814,7 @@
         <v>35977798773.6381</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15" customHeight="1">
+    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="26">
         <v>199</v>
       </c>
@@ -12843,7 +12849,7 @@
         <v>50225031975.403503</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" customHeight="1">
+    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="26">
         <v>200</v>
       </c>
@@ -12878,7 +12884,7 @@
         <v>269900335719.76599</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15" customHeight="1">
+    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="26">
         <v>201</v>
       </c>
@@ -12913,7 +12919,7 @@
         <v>1557131414660.24</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15" customHeight="1">
+    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="26">
         <v>202</v>
       </c>
@@ -12948,7 +12954,7 @@
         <v>54943741725.1642</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15" customHeight="1">
+    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="26">
         <v>206</v>
       </c>
@@ -12983,7 +12989,7 @@
         <v>181908371177.44901</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15" customHeight="1">
+    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="26">
         <v>207</v>
       </c>
@@ -13018,7 +13024,7 @@
         <v>283002571984.78198</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15" customHeight="1">
+    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="26">
         <v>208</v>
       </c>
@@ -13053,7 +13059,7 @@
         <v>369835370887.03497</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15" customHeight="1">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="26">
         <v>209</v>
       </c>
@@ -13088,7 +13094,7 @@
         <v>175083893789.70801</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15" customHeight="1">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="26">
         <v>210</v>
       </c>
@@ -13123,7 +13129,7 @@
         <v>117788977881.27699</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15" customHeight="1">
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="26">
         <v>211</v>
       </c>
@@ -13158,7 +13164,7 @@
         <v>197525517168.90601</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15" customHeight="1">
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="26">
         <v>212</v>
       </c>
@@ -13193,7 +13199,7 @@
         <v>197525517168.90601</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15" customHeight="1">
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="26">
         <v>213</v>
       </c>
@@ -13228,7 +13234,7 @@
         <v>197525517168.90601</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15" customHeight="1">
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="26">
         <v>214</v>
       </c>
@@ -13263,7 +13269,7 @@
         <v>197525517168.90601</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15" customHeight="1">
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="26">
         <v>215</v>
       </c>
@@ -13298,7 +13304,7 @@
         <v>316040828249.81299</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15" customHeight="1">
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="26">
         <v>216</v>
       </c>
@@ -13333,7 +13339,7 @@
         <v>347878663095.66901</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="26">
         <v>217</v>
       </c>
@@ -13368,7 +13374,7 @@
         <v>308877577184.93103</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="26">
         <v>218</v>
       </c>
@@ -13403,7 +13409,7 @@
         <v>64571421054.972198</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="26">
         <v>219</v>
       </c>
@@ -13438,7 +13444,7 @@
         <v>234167270163.60999</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15" customHeight="1">
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="26">
         <v>220</v>
       </c>
@@ -13473,7 +13479,7 @@
         <v>55224442104.467201</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="26">
         <v>221</v>
       </c>
@@ -13508,7 +13514,7 @@
         <v>237335203773.12299</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15" customHeight="1">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="26">
         <v>222</v>
       </c>
@@ -13543,7 +13549,7 @@
         <v>83188988724.987793</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1">
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="26">
         <v>223</v>
       </c>
@@ -13578,7 +13584,7 @@
         <v>323510181895.84003</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15" customHeight="1">
+    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="26">
         <v>224</v>
       </c>
@@ -13613,7 +13619,7 @@
         <v>283644209388.61102</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15" customHeight="1">
+    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="26">
         <v>225</v>
       </c>
@@ -13648,7 +13654,7 @@
         <v>48859563881.077003</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1">
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="26">
         <v>226</v>
       </c>
@@ -13683,7 +13689,7 @@
         <v>123208527386.939</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1">
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="26">
         <v>227</v>
       </c>
@@ -13718,7 +13724,7 @@
         <v>41032406056.970802</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15" customHeight="1">
+    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="26">
         <v>228</v>
       </c>
@@ -13753,7 +13759,7 @@
         <v>191421664789.12399</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15" customHeight="1">
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="26">
         <v>229</v>
       </c>
@@ -13788,7 +13794,7 @@
         <v>101973747281.634</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="26">
         <v>230</v>
       </c>
@@ -13823,7 +13829,7 @@
         <v>154258864117.31601</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="26">
         <v>231</v>
       </c>
@@ -13858,7 +13864,7 @@
         <v>58396273396.565201</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15" customHeight="1">
+    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="26">
         <v>232</v>
       </c>
@@ -13893,7 +13899,7 @@
         <v>111947005601.72501</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15" customHeight="1">
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="26">
         <v>233</v>
       </c>
@@ -13928,7 +13934,7 @@
         <v>418673286355.03802</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="26">
         <v>234</v>
       </c>
@@ -13963,7 +13969,7 @@
         <v>960505096237.01001</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="26">
         <v>235</v>
       </c>
@@ -13998,7 +14004,7 @@
         <v>990785388531.55896</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1">
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="26">
         <v>236</v>
       </c>
@@ -14033,7 +14039,7 @@
         <v>1810986046022.3799</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15" customHeight="1">
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="26">
         <v>237</v>
       </c>
@@ -14070,8 +14076,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q4" r:id="rId1"/>
-    <hyperlink ref="Q5" r:id="rId2"/>
+    <hyperlink ref="Q4" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="Q5" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
@@ -14080,16 +14086,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
         <v>710</v>
       </c>
@@ -14098,7 +14104,7 @@
       </c>
       <c r="C1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="50" t="s">
         <v>128</v>
       </c>
@@ -14110,7 +14116,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
         <v>713</v>
       </c>
@@ -14118,7 +14124,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
         <v>715</v>
       </c>
@@ -14126,7 +14132,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="28" t="s">
         <v>717</v>
       </c>
@@ -14134,7 +14140,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
         <v>719</v>
       </c>
@@ -14150,19 +14156,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="74.140625" customWidth="1"/>
+    <col min="3" max="3" width="74.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
         <v>721</v>
       </c>
@@ -14173,7 +14179,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.15" customHeight="1">
+    <row r="2" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="43" t="s">
         <v>128</v>
       </c>
@@ -14184,7 +14190,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="63.75" customHeight="1">
+    <row r="3" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="43" t="s">
         <v>726</v>
       </c>
@@ -14195,7 +14201,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" customHeight="1">
+    <row r="4" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="43" t="s">
         <v>729</v>
       </c>
@@ -14206,7 +14212,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" customHeight="1">
+    <row r="5" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="45" t="s">
         <v>732</v>
       </c>
@@ -14221,7 +14227,7 @@
       </c>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>735</v>
       </c>
@@ -14236,7 +14242,7 @@
       </c>
       <c r="E6" s="35"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>738</v>
       </c>
@@ -14250,7 +14256,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
         <v>741</v>
       </c>
@@ -14264,7 +14270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>744</v>
       </c>
@@ -14282,18 +14288,18 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="49" t="s">
         <v>747</v>
       </c>
@@ -14301,7 +14307,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>420</v>
       </c>
@@ -14309,7 +14315,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>750</v>
       </c>
@@ -14317,7 +14323,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>752</v>
       </c>
@@ -14325,7 +14331,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>754</v>
       </c>
@@ -14333,7 +14339,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>756</v>
       </c>
@@ -14341,7 +14347,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>758</v>
       </c>
@@ -14349,7 +14355,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>760</v>
       </c>
@@ -14357,7 +14363,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>416</v>
       </c>
@@ -14365,7 +14371,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>454</v>
       </c>
@@ -14373,7 +14379,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>444</v>
       </c>
@@ -14381,7 +14387,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>765</v>
       </c>
@@ -14389,7 +14395,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>767</v>
       </c>
@@ -14397,7 +14403,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>769</v>
       </c>
@@ -14405,7 +14411,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>771</v>
       </c>
@@ -14413,7 +14419,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>773</v>
       </c>
@@ -14421,7 +14427,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>775</v>
       </c>
@@ -14429,7 +14435,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -14437,7 +14443,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>778</v>
       </c>
@@ -14445,7 +14451,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>780</v>
       </c>
@@ -14453,7 +14459,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>782</v>
       </c>
@@ -14461,7 +14467,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>784</v>
       </c>
@@ -14469,7 +14475,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>786</v>
       </c>
@@ -14477,7 +14483,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>448</v>
       </c>
@@ -14485,7 +14491,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>789</v>
       </c>
@@ -14493,7 +14499,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>433</v>
       </c>
@@ -14508,7 +14514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -14518,18 +14524,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="20.73046875" customWidth="1"/>
+    <col min="7" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="10" width="16.265625" customWidth="1"/>
+    <col min="11" max="11" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.45" customHeight="1">
+    <row r="1" spans="1:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -14564,7 +14570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -14573,7 +14579,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -14582,7 +14588,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -14591,7 +14597,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -14600,7 +14606,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -14609,7 +14615,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -14618,7 +14624,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -14627,7 +14633,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14636,7 +14642,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -14645,7 +14651,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -14654,7 +14660,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -14663,7 +14669,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -14672,7 +14678,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -14681,7 +14687,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -14690,7 +14696,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -14699,7 +14705,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -14708,7 +14714,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -14717,7 +14723,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -14726,7 +14732,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -14735,7 +14741,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -14744,7 +14750,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -14753,7 +14759,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -14762,7 +14768,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -14771,7 +14777,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -14782,7 +14788,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14793,7 +14799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -14803,24 +14809,24 @@
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="9" width="12.28515625" customWidth="1"/>
+    <col min="3" max="9" width="12.265625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.86328125" customWidth="1"/>
+    <col min="15" max="15" width="11.86328125" customWidth="1"/>
+    <col min="16" max="16" width="12.1328125" customWidth="1"/>
+    <col min="17" max="17" width="18.265625" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" customWidth="1"/>
     <col min="19" max="19" width="24" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" customWidth="1"/>
-    <col min="1018" max="1018" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.86328125" customWidth="1"/>
+    <col min="21" max="21" width="14.1328125" customWidth="1"/>
+    <col min="22" max="22" width="14.59765625" customWidth="1"/>
+    <col min="1018" max="1018" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1018" ht="79.150000000000006" customHeight="1">
+    <row r="1" spans="1:1018" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -14904,7 +14910,7 @@
       </c>
       <c r="AMD1" s="10"/>
     </row>
-    <row r="2" spans="1:1018">
+    <row r="2" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -14926,7 +14932,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:1018">
+    <row r="3" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -14938,7 +14944,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:1018">
+    <row r="4" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -14950,7 +14956,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:1018">
+    <row r="5" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -14962,7 +14968,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:1018">
+    <row r="6" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -14975,7 +14981,7 @@
       <c r="K6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:1018">
+    <row r="7" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -14987,7 +14993,7 @@
       <c r="J7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:1018">
+    <row r="8" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -14999,7 +15005,7 @@
       <c r="J8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:1018">
+    <row r="9" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -15011,7 +15017,7 @@
       <c r="J9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:1018">
+    <row r="10" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -15023,7 +15029,7 @@
       <c r="J10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:1018">
+    <row r="11" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -15035,7 +15041,7 @@
       <c r="J11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:1018">
+    <row r="12" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -15047,7 +15053,7 @@
       <c r="J12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:1018">
+    <row r="13" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -15059,7 +15065,7 @@
       <c r="J13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:1018">
+    <row r="14" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -15071,7 +15077,7 @@
       <c r="J14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:1018">
+    <row r="15" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -15083,7 +15089,7 @@
       <c r="J15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:1018">
+    <row r="16" spans="1:1018" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -15096,7 +15102,7 @@
       <c r="K16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -15109,7 +15115,7 @@
       <c r="K17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -15122,7 +15128,7 @@
       <c r="K18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -15134,7 +15140,7 @@
       <c r="J19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -15146,7 +15152,7 @@
       <c r="J20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -15158,7 +15164,7 @@
       <c r="J21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -15170,7 +15176,7 @@
       <c r="J22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -15182,7 +15188,7 @@
       <c r="J23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -15194,7 +15200,7 @@
       <c r="J24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -15206,7 +15212,7 @@
       <c r="J25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -15218,7 +15224,7 @@
       <c r="J26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -15230,7 +15236,7 @@
       <c r="J27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -15242,7 +15248,7 @@
       <c r="J28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -15255,7 +15261,7 @@
       <c r="K29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -15267,7 +15273,7 @@
       <c r="J30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -15281,11 +15287,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1001">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1001" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>1800</formula1>
       <formula2>2019</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1001" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15297,7 +15303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -15307,23 +15313,23 @@
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" customWidth="1"/>
+    <col min="5" max="5" width="18.265625" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="29.7109375" customWidth="1"/>
-    <col min="1019" max="1019" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" customWidth="1"/>
+    <col min="9" max="9" width="19.86328125" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" customWidth="1"/>
+    <col min="21" max="21" width="29.73046875" customWidth="1"/>
+    <col min="1019" max="1019" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="79.150000000000006" customHeight="1">
+    <row r="1" spans="1:24" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -15397,7 +15403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -15418,7 +15424,7 @@
       <c r="R2" s="23"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -15436,82 +15442,82 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C31" s="1"/>
     </row>
   </sheetData>
@@ -15522,7 +15528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -15532,17 +15538,17 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" customWidth="1"/>
-    <col min="1019" max="1019" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.265625" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="22.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" customWidth="1"/>
+    <col min="26" max="26" width="16.1328125" customWidth="1"/>
+    <col min="1019" max="1019" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="79.150000000000006" customHeight="1">
+    <row r="1" spans="1:27" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -15625,7 +15631,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="42" customHeight="1">
+    <row r="2" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -15639,7 +15645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -15649,15 +15655,15 @@
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" customWidth="1"/>
-    <col min="1019" max="1019" width="11.5703125" customWidth="1"/>
+    <col min="7" max="12" width="9.1328125" customWidth="1"/>
+    <col min="13" max="13" width="19.86328125" customWidth="1"/>
+    <col min="14" max="15" width="9.1328125" customWidth="1"/>
+    <col min="1019" max="1019" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="79.150000000000006" customHeight="1">
+    <row r="1" spans="1:27" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -15740,7 +15746,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="M2" s="14"/>
       <c r="W2" s="1"/>
     </row>
@@ -15752,7 +15758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -15760,15 +15766,15 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" customWidth="1"/>
-    <col min="1020" max="1020" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="22.59765625" customWidth="1"/>
+    <col min="4" max="5" width="15.73046875" customWidth="1"/>
+    <col min="16" max="16" width="19.86328125" customWidth="1"/>
+    <col min="1020" max="1020" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="79.150000000000006" customHeight="1">
+    <row r="1" spans="1:24" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
@@ -15842,7 +15848,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -15856,7 +15862,7 @@
       <c r="P2" s="14"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -15868,7 +15874,7 @@
       <c r="I3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -15892,7 +15898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -15902,17 +15908,17 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="998" max="1019" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="3" max="4" width="7.59765625" customWidth="1"/>
+    <col min="14" max="14" width="19.86328125" customWidth="1"/>
+    <col min="15" max="15" width="9.1328125" customWidth="1"/>
+    <col min="21" max="21" width="9.1328125" customWidth="1"/>
+    <col min="998" max="1019" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="79.150000000000006" customHeight="1">
+    <row r="1" spans="1:21" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>792</v>
       </c>
@@ -15977,11 +15983,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="N2" s="14"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="12" customHeight="1"/>
+    <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15994,7 +16000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -16004,13 +16010,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="1020" max="1020" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.86328125" customWidth="1"/>
+    <col min="1020" max="1020" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="79.150000000000006" customHeight="1">
+    <row r="1" spans="1:24" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>70</v>
       </c>
@@ -16084,7 +16090,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="Q2" s="14"/>
       <c r="V2" s="1"/>
     </row>
